--- a/Timesheet_obiwan.xlsx
+++ b/Timesheet_obiwan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t xml:space="preserve">TIME TRACKER</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t xml:space="preserve">Total Hrs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tableau with my professional acct  https://elearning.tableau.com/series/data-scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC with Bobb Paty and Richard Leadbetter for GRMS 2 dashboard, new database design, edit columns for sharepoint connection tabes</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
     <numFmt numFmtId="169" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -226,6 +238,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -383,7 +400,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,6 +495,14 @@
     </xf>
     <xf numFmtId="168" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -579,10 +604,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,11 +987,21 @@
       <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="C16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="17" t="n">
@@ -982,25 +1017,25 @@
         <v>19</v>
       </c>
       <c r="C17" s="16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17" s="16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F17" s="16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="17" t="n">
         <f aca="false">SUM(C17:I17)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,23 +1528,23 @@
       <c r="B44" s="22"/>
       <c r="C44" s="17" t="n">
         <f aca="false">SUM(C13:C43)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="n">
         <f aca="false">SUM(D13:D43)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E44" s="17" t="n">
         <f aca="false">SUM(E13:E43)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F44" s="17" t="n">
         <f aca="false">SUM(F13:F43)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G44" s="17" t="n">
         <f aca="false">SUM(G13:G43)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H44" s="17" t="n">
         <f aca="false">SUM(H13:H43)</f>
@@ -1521,13 +1556,55 @@
       </c>
       <c r="J44" s="23" t="n">
         <f aca="false">SUM(J13:J43)</f>
-        <v>40</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="25"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="25"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A47:J47"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
